--- a/CapNhatGioChamCong/ChamCong_v05/zMisc/Book1.xlsx
+++ b/CapNhatGioChamCong/ChamCong_v05/zMisc/Book1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18195" windowHeight="6975"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18195" windowHeight="6975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="ky hieu" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="DLL reference" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Công</t>
   </si>
@@ -125,19 +125,101 @@
   </si>
   <si>
     <t>an</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>DevExpress.Data.v14.1</t>
+  </si>
+  <si>
+    <t>DevExpress.Printing.v14.1.Core</t>
+  </si>
+  <si>
+    <t>DevExpress.Printing.v14.1</t>
+  </si>
+  <si>
+    <t>DevExpress.Utils.v14.1</t>
+  </si>
+  <si>
+    <t>DevExpress.XtraEditors.v14.1</t>
+  </si>
+  <si>
+    <t>DevExpress.XtraGrid.v14.1</t>
+  </si>
+  <si>
+    <t>DevExpress.XtraLayout.v14.1</t>
+  </si>
+  <si>
+    <t>DevExpress.XtraScheduler.v14.1</t>
+  </si>
+  <si>
+    <t>DevExpress.XtraScheduler.v14.1.Core</t>
+  </si>
+  <si>
+    <t>EPPlus</t>
+  </si>
+  <si>
+    <t>log4net</t>
+  </si>
+  <si>
+    <t>Microsoft.CSharp</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>System.Core</t>
+  </si>
+  <si>
+    <t>System.Data</t>
+  </si>
+  <si>
+    <t>System.Data.DataSetExtensions</t>
+  </si>
+  <si>
+    <t>System.Deployment</t>
+  </si>
+  <si>
+    <t>System.Drawing</t>
+  </si>
+  <si>
+    <t>System.Windows.Forms</t>
+  </si>
+  <si>
+    <t>System.Xml</t>
+  </si>
+  <si>
+    <t>System.Xml.Linq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,10 +242,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -643,13 +731,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
